--- a/我的创作/财务/房地产/房屋买卖费用.xlsx
+++ b/我的创作/财务/房地产/房屋买卖费用.xlsx
@@ -1607,7 +1607,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="7"/>
